--- a/idh_elec.xlsx
+++ b/idh_elec.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t xml:space="preserve">Ubigeo</t>
   </si>
   <si>
-    <t xml:space="preserve">Provincia</t>
+    <t xml:space="preserve">PROVINCIA</t>
   </si>
   <si>
     <t xml:space="preserve">Voto_PPK</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">CARHUAZ</t>
   </si>
   <si>
-    <t xml:space="preserve">CARLOS FERMIN FITZCARRALD</t>
+    <t xml:space="preserve">CARLOS F. FITZCARRALD</t>
   </si>
   <si>
     <t xml:space="preserve">CASMA</t>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t xml:space="preserve">DANIEL ALCIDES CARRION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATEM DEL MARANON</t>
   </si>
   <si>
     <t xml:space="preserve">DOS DE MAYO</t>
@@ -1891,1779 +1894,1793 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>100300</v>
+        <v>160700</v>
       </c>
       <c r="B69" t="s">
         <v>71</v>
       </c>
       <c r="C69" t="n">
-        <v>9616</v>
+        <v>8706</v>
       </c>
       <c r="D69" t="n">
-        <v>5481</v>
+        <v>7087</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>210500</v>
+        <v>100300</v>
       </c>
       <c r="B70" t="s">
         <v>72</v>
       </c>
       <c r="C70" t="n">
-        <v>23463</v>
+        <v>9616</v>
       </c>
       <c r="D70" t="n">
-        <v>8805</v>
+        <v>5481</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>220300</v>
+        <v>210500</v>
       </c>
       <c r="B71" t="s">
         <v>73</v>
       </c>
       <c r="C71" t="n">
-        <v>7285</v>
+        <v>23463</v>
       </c>
       <c r="D71" t="n">
-        <v>9348</v>
+        <v>8805</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>80800</v>
+        <v>220300</v>
       </c>
       <c r="B72" t="s">
         <v>74</v>
       </c>
       <c r="C72" t="n">
-        <v>19277</v>
+        <v>7285</v>
       </c>
       <c r="D72" t="n">
-        <v>9671</v>
+        <v>9348</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>140200</v>
+        <v>80800</v>
       </c>
       <c r="B73" t="s">
         <v>75</v>
       </c>
       <c r="C73" t="n">
-        <v>19388</v>
+        <v>19277</v>
       </c>
       <c r="D73" t="n">
-        <v>31097</v>
+        <v>9671</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>180200</v>
+        <v>140200</v>
       </c>
       <c r="B74" t="s">
         <v>76</v>
       </c>
       <c r="C74" t="n">
-        <v>5904</v>
+        <v>19388</v>
       </c>
       <c r="D74" t="n">
-        <v>3778</v>
+        <v>31097</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131100</v>
+        <v>180200</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
       </c>
       <c r="C75" t="n">
-        <v>3293</v>
+        <v>5904</v>
       </c>
       <c r="D75" t="n">
-        <v>11343</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>30700</v>
+        <v>131100</v>
       </c>
       <c r="B76" t="s">
         <v>78</v>
       </c>
       <c r="C76" t="n">
-        <v>5535</v>
+        <v>3293</v>
       </c>
       <c r="D76" t="n">
-        <v>4297</v>
+        <v>11343</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>100400</v>
+        <v>30700</v>
       </c>
       <c r="B77" t="s">
         <v>79</v>
       </c>
       <c r="C77" t="n">
-        <v>4393</v>
+        <v>5535</v>
       </c>
       <c r="D77" t="n">
-        <v>2153</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>60700</v>
+        <v>100400</v>
       </c>
       <c r="B78" t="s">
         <v>80</v>
       </c>
       <c r="C78" t="n">
-        <v>27407</v>
+        <v>4393</v>
       </c>
       <c r="D78" t="n">
-        <v>11866</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>220400</v>
+        <v>60700</v>
       </c>
       <c r="B79" t="s">
         <v>81</v>
       </c>
       <c r="C79" t="n">
-        <v>6699</v>
+        <v>27407</v>
       </c>
       <c r="D79" t="n">
-        <v>7628</v>
+        <v>11866</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>100500</v>
+        <v>220400</v>
       </c>
       <c r="B80" t="s">
         <v>82</v>
       </c>
       <c r="C80" t="n">
-        <v>14491</v>
+        <v>6699</v>
       </c>
       <c r="D80" t="n">
-        <v>7856</v>
+        <v>7628</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>50100</v>
+        <v>100500</v>
       </c>
       <c r="B81" t="s">
         <v>83</v>
       </c>
       <c r="C81" t="n">
-        <v>69225</v>
+        <v>14491</v>
       </c>
       <c r="D81" t="n">
-        <v>58896</v>
+        <v>7856</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>50300</v>
+        <v>50100</v>
       </c>
       <c r="B82" t="s">
         <v>84</v>
       </c>
       <c r="C82" t="n">
-        <v>2373</v>
+        <v>69225</v>
       </c>
       <c r="D82" t="n">
-        <v>1904</v>
+        <v>58896</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>200300</v>
+        <v>50300</v>
       </c>
       <c r="B83" t="s">
         <v>85</v>
       </c>
       <c r="C83" t="n">
-        <v>20106</v>
+        <v>2373</v>
       </c>
       <c r="D83" t="n">
-        <v>27526</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>210600</v>
+        <v>200300</v>
       </c>
       <c r="B84" t="s">
         <v>86</v>
       </c>
       <c r="C84" t="n">
-        <v>24656</v>
+        <v>20106</v>
       </c>
       <c r="D84" t="n">
-        <v>8096</v>
+        <v>27526</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>90100</v>
+        <v>210600</v>
       </c>
       <c r="B85" t="s">
         <v>87</v>
       </c>
       <c r="C85" t="n">
-        <v>38509</v>
+        <v>24656</v>
       </c>
       <c r="D85" t="n">
-        <v>20649</v>
+        <v>8096</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>120100</v>
+        <v>90100</v>
       </c>
       <c r="B86" t="s">
         <v>88</v>
       </c>
       <c r="C86" t="n">
-        <v>177839</v>
+        <v>38509</v>
       </c>
       <c r="D86" t="n">
-        <v>128534</v>
+        <v>20649</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>50400</v>
+        <v>120100</v>
       </c>
       <c r="B87" t="s">
         <v>89</v>
       </c>
       <c r="C87" t="n">
-        <v>14274</v>
+        <v>177839</v>
       </c>
       <c r="D87" t="n">
-        <v>21146</v>
+        <v>128534</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>100100</v>
+        <v>50400</v>
       </c>
       <c r="B88" t="s">
         <v>90</v>
       </c>
       <c r="C88" t="n">
-        <v>68747</v>
+        <v>14274</v>
       </c>
       <c r="D88" t="n">
-        <v>69290</v>
+        <v>21146</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>150600</v>
+        <v>100100</v>
       </c>
       <c r="B89" t="s">
         <v>91</v>
       </c>
       <c r="C89" t="n">
-        <v>39152</v>
+        <v>68747</v>
       </c>
       <c r="D89" t="n">
-        <v>71565</v>
+        <v>69290</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>20100</v>
+        <v>150600</v>
       </c>
       <c r="B90" t="s">
         <v>92</v>
       </c>
       <c r="C90" t="n">
-        <v>45346</v>
+        <v>39152</v>
       </c>
       <c r="D90" t="n">
-        <v>43742</v>
+        <v>71565</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>21000</v>
+        <v>20100</v>
       </c>
       <c r="B91" t="s">
         <v>93</v>
       </c>
       <c r="C91" t="n">
-        <v>18504</v>
+        <v>45346</v>
       </c>
       <c r="D91" t="n">
-        <v>12582</v>
+        <v>43742</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>21100</v>
+        <v>21000</v>
       </c>
       <c r="B92" t="s">
         <v>94</v>
       </c>
       <c r="C92" t="n">
-        <v>6384</v>
+        <v>18504</v>
       </c>
       <c r="D92" t="n">
-        <v>10774</v>
+        <v>12582</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>150700</v>
+        <v>21100</v>
       </c>
       <c r="B93" t="s">
         <v>95</v>
       </c>
       <c r="C93" t="n">
-        <v>22870</v>
+        <v>6384</v>
       </c>
       <c r="D93" t="n">
-        <v>36719</v>
+        <v>10774</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>150800</v>
+        <v>150700</v>
       </c>
       <c r="B94" t="s">
         <v>96</v>
       </c>
       <c r="C94" t="n">
-        <v>52891</v>
+        <v>22870</v>
       </c>
       <c r="D94" t="n">
-        <v>78086</v>
+        <v>36719</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>21200</v>
+        <v>150800</v>
       </c>
       <c r="B95" t="s">
         <v>97</v>
       </c>
       <c r="C95" t="n">
-        <v>8295</v>
+        <v>52891</v>
       </c>
       <c r="D95" t="n">
-        <v>18991</v>
+        <v>78086</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>90600</v>
+        <v>21200</v>
       </c>
       <c r="B96" t="s">
         <v>98</v>
       </c>
       <c r="C96" t="n">
-        <v>3614</v>
+        <v>8295</v>
       </c>
       <c r="D96" t="n">
-        <v>6578</v>
+        <v>18991</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>110100</v>
+        <v>90600</v>
       </c>
       <c r="B97" t="s">
         <v>99</v>
       </c>
       <c r="C97" t="n">
-        <v>108600</v>
+        <v>3614</v>
       </c>
       <c r="D97" t="n">
-        <v>112346</v>
+        <v>6578</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>180300</v>
+        <v>110100</v>
       </c>
       <c r="B98" t="s">
         <v>100</v>
       </c>
       <c r="C98" t="n">
-        <v>30825</v>
+        <v>108600</v>
       </c>
       <c r="D98" t="n">
-        <v>15916</v>
+        <v>112346</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>40700</v>
+        <v>180300</v>
       </c>
       <c r="B99" t="s">
         <v>101</v>
       </c>
       <c r="C99" t="n">
-        <v>23049</v>
+        <v>30825</v>
       </c>
       <c r="D99" t="n">
-        <v>10594</v>
+        <v>15916</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>60800</v>
+        <v>40700</v>
       </c>
       <c r="B100" t="s">
         <v>102</v>
       </c>
       <c r="C100" t="n">
-        <v>53416</v>
+        <v>23049</v>
       </c>
       <c r="D100" t="n">
-        <v>43856</v>
+        <v>10594</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>120400</v>
+        <v>60800</v>
       </c>
       <c r="B101" t="s">
         <v>103</v>
       </c>
       <c r="C101" t="n">
-        <v>24624</v>
+        <v>53416</v>
       </c>
       <c r="D101" t="n">
-        <v>25113</v>
+        <v>43856</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>230300</v>
+        <v>120400</v>
       </c>
       <c r="B102" t="s">
         <v>104</v>
       </c>
       <c r="C102" t="n">
-        <v>5110</v>
+        <v>24624</v>
       </c>
       <c r="D102" t="n">
-        <v>2664</v>
+        <v>25113</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>130500</v>
+        <v>230300</v>
       </c>
       <c r="B103" t="s">
         <v>105</v>
       </c>
       <c r="C103" t="n">
-        <v>6483</v>
+        <v>5110</v>
       </c>
       <c r="D103" t="n">
-        <v>9723</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>120500</v>
+        <v>130500</v>
       </c>
       <c r="B104" t="s">
         <v>106</v>
       </c>
       <c r="C104" t="n">
-        <v>6350</v>
+        <v>6483</v>
       </c>
       <c r="D104" t="n">
-        <v>6219</v>
+        <v>9723</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>80900</v>
+        <v>120500</v>
       </c>
       <c r="B105" t="s">
         <v>107</v>
       </c>
       <c r="C105" t="n">
-        <v>40835</v>
+        <v>6350</v>
       </c>
       <c r="D105" t="n">
-        <v>43930</v>
+        <v>6219</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>50500</v>
+        <v>80900</v>
       </c>
       <c r="B106" t="s">
         <v>108</v>
       </c>
       <c r="C106" t="n">
-        <v>8599</v>
+        <v>40835</v>
       </c>
       <c r="D106" t="n">
-        <v>16867</v>
+        <v>43930</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>40800</v>
+        <v>50500</v>
       </c>
       <c r="B107" t="s">
         <v>109</v>
       </c>
       <c r="C107" t="n">
-        <v>3065</v>
+        <v>8599</v>
       </c>
       <c r="D107" t="n">
-        <v>2682</v>
+        <v>16867</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>220500</v>
+        <v>40800</v>
       </c>
       <c r="B108" t="s">
         <v>110</v>
       </c>
       <c r="C108" t="n">
-        <v>17134</v>
+        <v>3065</v>
       </c>
       <c r="D108" t="n">
-        <v>24370</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>140300</v>
+        <v>220500</v>
       </c>
       <c r="B109" t="s">
         <v>111</v>
       </c>
       <c r="C109" t="n">
-        <v>52258</v>
+        <v>17134</v>
       </c>
       <c r="D109" t="n">
-        <v>107009</v>
+        <v>24370</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>210700</v>
+        <v>140300</v>
       </c>
       <c r="B110" t="s">
         <v>112</v>
       </c>
       <c r="C110" t="n">
-        <v>14674</v>
+        <v>52258</v>
       </c>
       <c r="D110" t="n">
-        <v>8858</v>
+        <v>107009</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>101000</v>
+        <v>210700</v>
       </c>
       <c r="B111" t="s">
         <v>113</v>
       </c>
       <c r="C111" t="n">
-        <v>6295</v>
+        <v>14674</v>
       </c>
       <c r="D111" t="n">
-        <v>2890</v>
+        <v>8858</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>100600</v>
+        <v>101000</v>
       </c>
       <c r="B112" t="s">
         <v>114</v>
       </c>
       <c r="C112" t="n">
-        <v>21222</v>
+        <v>6295</v>
       </c>
       <c r="D112" t="n">
-        <v>41049</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>150100</v>
+        <v>100600</v>
       </c>
       <c r="B113" t="s">
         <v>115</v>
       </c>
       <c r="C113" t="n">
-        <v>2913776</v>
+        <v>21222</v>
       </c>
       <c r="D113" t="n">
-        <v>2768452</v>
+        <v>41049</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>160300</v>
+        <v>150100</v>
       </c>
       <c r="B114" t="s">
         <v>116</v>
       </c>
       <c r="C114" t="n">
-        <v>11778</v>
+        <v>2913776</v>
       </c>
       <c r="D114" t="n">
-        <v>12142</v>
+        <v>2768452</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>50600</v>
+        <v>160300</v>
       </c>
       <c r="B115" t="s">
         <v>117</v>
       </c>
       <c r="C115" t="n">
-        <v>8749</v>
+        <v>11778</v>
       </c>
       <c r="D115" t="n">
-        <v>13174</v>
+        <v>12142</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>10500</v>
+        <v>50600</v>
       </c>
       <c r="B116" t="s">
         <v>118</v>
       </c>
       <c r="C116" t="n">
-        <v>8652</v>
+        <v>8749</v>
       </c>
       <c r="D116" t="n">
-        <v>11736</v>
+        <v>13174</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>170200</v>
+        <v>10500</v>
       </c>
       <c r="B117" t="s">
         <v>119</v>
       </c>
       <c r="C117" t="n">
-        <v>1445</v>
+        <v>8652</v>
       </c>
       <c r="D117" t="n">
-        <v>5374</v>
+        <v>11736</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>100700</v>
+        <v>170200</v>
       </c>
       <c r="B118" t="s">
         <v>120</v>
       </c>
       <c r="C118" t="n">
-        <v>5373</v>
+        <v>1445</v>
       </c>
       <c r="D118" t="n">
-        <v>4708</v>
+        <v>5374</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>220600</v>
+        <v>100700</v>
       </c>
       <c r="B119" t="s">
         <v>121</v>
       </c>
       <c r="C119" t="n">
-        <v>14498</v>
+        <v>5373</v>
       </c>
       <c r="D119" t="n">
-        <v>15278</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>21300</v>
+        <v>220600</v>
       </c>
       <c r="B120" t="s">
         <v>122</v>
       </c>
       <c r="C120" t="n">
-        <v>6481</v>
+        <v>14498</v>
       </c>
       <c r="D120" t="n">
-        <v>2584</v>
+        <v>15278</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>180100</v>
+        <v>21300</v>
       </c>
       <c r="B121" t="s">
         <v>123</v>
       </c>
       <c r="C121" t="n">
-        <v>36565</v>
+        <v>6481</v>
       </c>
       <c r="D121" t="n">
-        <v>14893</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>160400</v>
+        <v>180100</v>
       </c>
       <c r="B122" t="s">
         <v>124</v>
       </c>
       <c r="C122" t="n">
-        <v>5411</v>
+        <v>36565</v>
       </c>
       <c r="D122" t="n">
-        <v>14798</v>
+        <v>14893</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>160100</v>
+        <v>160400</v>
       </c>
       <c r="B123" t="s">
         <v>125</v>
       </c>
       <c r="C123" t="n">
-        <v>139405</v>
+        <v>5411</v>
       </c>
       <c r="D123" t="n">
-        <v>106591</v>
+        <v>14798</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>210800</v>
+        <v>160100</v>
       </c>
       <c r="B124" t="s">
         <v>126</v>
       </c>
       <c r="C124" t="n">
-        <v>26413</v>
+        <v>139405</v>
       </c>
       <c r="D124" t="n">
-        <v>9932</v>
+        <v>106591</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>210900</v>
+        <v>210800</v>
       </c>
       <c r="B125" t="s">
         <v>127</v>
       </c>
       <c r="C125" t="n">
-        <v>7351</v>
+        <v>26413</v>
       </c>
       <c r="D125" t="n">
-        <v>3626</v>
+        <v>9932</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>200400</v>
+        <v>210900</v>
       </c>
       <c r="B126" t="s">
         <v>128</v>
       </c>
       <c r="C126" t="n">
-        <v>32301</v>
+        <v>7351</v>
       </c>
       <c r="D126" t="n">
-        <v>57567</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>220100</v>
+        <v>200400</v>
       </c>
       <c r="B127" t="s">
         <v>129</v>
       </c>
       <c r="C127" t="n">
-        <v>24811</v>
+        <v>32301</v>
       </c>
       <c r="D127" t="n">
-        <v>36127</v>
+        <v>57567</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>110300</v>
+        <v>220100</v>
       </c>
       <c r="B128" t="s">
         <v>130</v>
       </c>
       <c r="C128" t="n">
-        <v>17437</v>
+        <v>24811</v>
       </c>
       <c r="D128" t="n">
-        <v>24582</v>
+        <v>36127</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>21400</v>
+        <v>110300</v>
       </c>
       <c r="B129" t="s">
         <v>131</v>
       </c>
       <c r="C129" t="n">
-        <v>1113</v>
+        <v>17437</v>
       </c>
       <c r="D129" t="n">
-        <v>2773</v>
+        <v>24582</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>130600</v>
+        <v>21400</v>
       </c>
       <c r="B130" t="s">
         <v>132</v>
       </c>
       <c r="C130" t="n">
-        <v>14794</v>
+        <v>1113</v>
       </c>
       <c r="D130" t="n">
-        <v>30304</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>190300</v>
+        <v>130600</v>
       </c>
       <c r="B131" t="s">
         <v>133</v>
       </c>
       <c r="C131" t="n">
-        <v>10564</v>
+        <v>14794</v>
       </c>
       <c r="D131" t="n">
-        <v>26409</v>
+        <v>30304</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>150900</v>
+        <v>190300</v>
       </c>
       <c r="B132" t="s">
         <v>134</v>
       </c>
       <c r="C132" t="n">
-        <v>2816</v>
+        <v>10564</v>
       </c>
       <c r="D132" t="n">
-        <v>6051</v>
+        <v>26409</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>130700</v>
+        <v>150900</v>
       </c>
       <c r="B133" t="s">
         <v>135</v>
       </c>
       <c r="C133" t="n">
-        <v>21760</v>
+        <v>2816</v>
       </c>
       <c r="D133" t="n">
-        <v>36775</v>
+        <v>6051</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>100800</v>
+        <v>130700</v>
       </c>
       <c r="B134" t="s">
         <v>136</v>
       </c>
       <c r="C134" t="n">
-        <v>10361</v>
+        <v>21760</v>
       </c>
       <c r="D134" t="n">
-        <v>11740</v>
+        <v>36775</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>250300</v>
+        <v>100800</v>
       </c>
       <c r="B135" t="s">
         <v>137</v>
       </c>
       <c r="C135" t="n">
-        <v>9490</v>
+        <v>10361</v>
       </c>
       <c r="D135" t="n">
-        <v>15089</v>
+        <v>11740</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>200500</v>
+        <v>250300</v>
       </c>
       <c r="B136" t="s">
         <v>138</v>
       </c>
       <c r="C136" t="n">
-        <v>25790</v>
+        <v>9490</v>
       </c>
       <c r="D136" t="n">
-        <v>41585</v>
+        <v>15089</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>21500</v>
+        <v>200500</v>
       </c>
       <c r="B137" t="s">
         <v>139</v>
       </c>
       <c r="C137" t="n">
-        <v>6354</v>
+        <v>25790</v>
       </c>
       <c r="D137" t="n">
-        <v>3996</v>
+        <v>41585</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>110400</v>
+        <v>21500</v>
       </c>
       <c r="B138" t="s">
         <v>140</v>
       </c>
       <c r="C138" t="n">
-        <v>4015</v>
+        <v>6354</v>
       </c>
       <c r="D138" t="n">
-        <v>5449</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>50700</v>
+        <v>110400</v>
       </c>
       <c r="B139" t="s">
         <v>141</v>
       </c>
       <c r="C139" t="n">
-        <v>5091</v>
+        <v>4015</v>
       </c>
       <c r="D139" t="n">
-        <v>5310</v>
+        <v>5449</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>81000</v>
+        <v>50700</v>
       </c>
       <c r="B140" t="s">
         <v>142</v>
       </c>
       <c r="C140" t="n">
-        <v>9117</v>
+        <v>5091</v>
       </c>
       <c r="D140" t="n">
-        <v>4363</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>190100</v>
+        <v>81000</v>
       </c>
       <c r="B141" t="s">
         <v>143</v>
       </c>
       <c r="C141" t="n">
-        <v>42498</v>
+        <v>9117</v>
       </c>
       <c r="D141" t="n">
-        <v>29741</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>130800</v>
+        <v>190100</v>
       </c>
       <c r="B142" t="s">
         <v>144</v>
       </c>
       <c r="C142" t="n">
-        <v>9708</v>
+        <v>42498</v>
       </c>
       <c r="D142" t="n">
-        <v>18759</v>
+        <v>29741</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>50800</v>
+        <v>130800</v>
       </c>
       <c r="B143" t="s">
         <v>145</v>
       </c>
       <c r="C143" t="n">
-        <v>2070</v>
+        <v>9708</v>
       </c>
       <c r="D143" t="n">
-        <v>2130</v>
+        <v>18759</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>81100</v>
+        <v>50800</v>
       </c>
       <c r="B144" t="s">
         <v>146</v>
       </c>
       <c r="C144" t="n">
-        <v>12451</v>
+        <v>2070</v>
       </c>
       <c r="D144" t="n">
-        <v>7335</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>220700</v>
+        <v>81100</v>
       </c>
       <c r="B145" t="s">
         <v>147</v>
       </c>
       <c r="C145" t="n">
-        <v>9036</v>
+        <v>12451</v>
       </c>
       <c r="D145" t="n">
-        <v>13153</v>
+        <v>7335</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>110500</v>
+        <v>220700</v>
       </c>
       <c r="B146" t="s">
         <v>148</v>
       </c>
       <c r="C146" t="n">
-        <v>35037</v>
+        <v>9036</v>
       </c>
       <c r="D146" t="n">
-        <v>50013</v>
+        <v>13153</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>200100</v>
+        <v>110500</v>
       </c>
       <c r="B147" t="s">
         <v>149</v>
       </c>
       <c r="C147" t="n">
-        <v>140940</v>
+        <v>35037</v>
       </c>
       <c r="D147" t="n">
-        <v>206840</v>
+        <v>50013</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>21600</v>
+        <v>200100</v>
       </c>
       <c r="B148" t="s">
         <v>150</v>
       </c>
       <c r="C148" t="n">
-        <v>6251</v>
+        <v>140940</v>
       </c>
       <c r="D148" t="n">
-        <v>4549</v>
+        <v>206840</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>100900</v>
+        <v>21600</v>
       </c>
       <c r="B149" t="s">
         <v>151</v>
       </c>
       <c r="C149" t="n">
-        <v>4037</v>
+        <v>6251</v>
       </c>
       <c r="D149" t="n">
-        <v>9206</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>210100</v>
+        <v>100900</v>
       </c>
       <c r="B150" t="s">
         <v>152</v>
       </c>
       <c r="C150" t="n">
-        <v>78912</v>
+        <v>4037</v>
       </c>
       <c r="D150" t="n">
-        <v>44900</v>
+        <v>9206</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>250400</v>
+        <v>210100</v>
       </c>
       <c r="B151" t="s">
         <v>153</v>
       </c>
       <c r="C151" t="n">
-        <v>280</v>
+        <v>78912</v>
       </c>
       <c r="D151" t="n">
-        <v>938</v>
+        <v>44900</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>81200</v>
+        <v>250400</v>
       </c>
       <c r="B152" t="s">
         <v>154</v>
       </c>
       <c r="C152" t="n">
-        <v>24211</v>
+        <v>280</v>
       </c>
       <c r="D152" t="n">
-        <v>16555</v>
+        <v>938</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>21700</v>
+        <v>81200</v>
       </c>
       <c r="B153" t="s">
         <v>155</v>
       </c>
       <c r="C153" t="n">
-        <v>6329</v>
+        <v>24211</v>
       </c>
       <c r="D153" t="n">
-        <v>5110</v>
+        <v>16555</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>160500</v>
+        <v>21700</v>
       </c>
       <c r="B154" t="s">
         <v>156</v>
       </c>
       <c r="C154" t="n">
-        <v>9227</v>
+        <v>6329</v>
       </c>
       <c r="D154" t="n">
-        <v>15472</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>220800</v>
+        <v>160500</v>
       </c>
       <c r="B155" t="s">
         <v>157</v>
       </c>
       <c r="C155" t="n">
-        <v>23354</v>
+        <v>9227</v>
       </c>
       <c r="D155" t="n">
-        <v>38952</v>
+        <v>15472</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>10600</v>
+        <v>220800</v>
       </c>
       <c r="B156" t="s">
         <v>158</v>
       </c>
       <c r="C156" t="n">
-        <v>6818</v>
+        <v>23354</v>
       </c>
       <c r="D156" t="n">
-        <v>6027</v>
+        <v>38952</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>211000</v>
+        <v>10600</v>
       </c>
       <c r="B157" t="s">
         <v>159</v>
       </c>
       <c r="C157" t="n">
-        <v>6238</v>
+        <v>6818</v>
       </c>
       <c r="D157" t="n">
-        <v>8017</v>
+        <v>6027</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>60900</v>
+        <v>211000</v>
       </c>
       <c r="B158" t="s">
         <v>160</v>
       </c>
       <c r="C158" t="n">
-        <v>32624</v>
+        <v>6238</v>
       </c>
       <c r="D158" t="n">
-        <v>26582</v>
+        <v>8017</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>61000</v>
+        <v>60900</v>
       </c>
       <c r="B159" t="s">
         <v>161</v>
       </c>
       <c r="C159" t="n">
-        <v>9825</v>
+        <v>32624</v>
       </c>
       <c r="D159" t="n">
-        <v>11728</v>
+        <v>26582</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>220900</v>
+        <v>61000</v>
       </c>
       <c r="B160" t="s">
         <v>162</v>
       </c>
       <c r="C160" t="n">
-        <v>50811</v>
+        <v>9825</v>
       </c>
       <c r="D160" t="n">
-        <v>49374</v>
+        <v>11728</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>61100</v>
+        <v>220900</v>
       </c>
       <c r="B161" t="s">
         <v>163</v>
       </c>
       <c r="C161" t="n">
-        <v>12455</v>
+        <v>50811</v>
       </c>
       <c r="D161" t="n">
-        <v>13525</v>
+        <v>49374</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>61200</v>
+        <v>61100</v>
       </c>
       <c r="B162" t="s">
         <v>164</v>
       </c>
       <c r="C162" t="n">
-        <v>6412</v>
+        <v>12455</v>
       </c>
       <c r="D162" t="n">
-        <v>5468</v>
+        <v>13525</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>211100</v>
+        <v>61200</v>
       </c>
       <c r="B163" t="s">
         <v>165</v>
       </c>
       <c r="C163" t="n">
-        <v>90004</v>
+        <v>6412</v>
       </c>
       <c r="D163" t="n">
-        <v>63291</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>130900</v>
+        <v>211100</v>
       </c>
       <c r="B164" t="s">
         <v>166</v>
       </c>
       <c r="C164" t="n">
-        <v>16838</v>
+        <v>90004</v>
       </c>
       <c r="D164" t="n">
-        <v>45056</v>
+        <v>63291</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>211200</v>
+        <v>130900</v>
       </c>
       <c r="B165" t="s">
         <v>167</v>
       </c>
       <c r="C165" t="n">
-        <v>9099</v>
+        <v>16838</v>
       </c>
       <c r="D165" t="n">
-        <v>14908</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>21800</v>
+        <v>211200</v>
       </c>
       <c r="B166" t="s">
         <v>168</v>
       </c>
       <c r="C166" t="n">
-        <v>128845</v>
+        <v>9099</v>
       </c>
       <c r="D166" t="n">
-        <v>126027</v>
+        <v>14908</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>61300</v>
+        <v>21800</v>
       </c>
       <c r="B167" t="s">
         <v>169</v>
       </c>
       <c r="C167" t="n">
-        <v>9497</v>
+        <v>128845</v>
       </c>
       <c r="D167" t="n">
-        <v>10353</v>
+        <v>126027</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>131000</v>
+        <v>61300</v>
       </c>
       <c r="B168" t="s">
         <v>170</v>
       </c>
       <c r="C168" t="n">
-        <v>8677</v>
+        <v>9497</v>
       </c>
       <c r="D168" t="n">
-        <v>16157</v>
+        <v>10353</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>120600</v>
+        <v>131000</v>
       </c>
       <c r="B169" t="s">
         <v>171</v>
       </c>
       <c r="C169" t="n">
-        <v>23964</v>
+        <v>8677</v>
       </c>
       <c r="D169" t="n">
-        <v>47272</v>
+        <v>16157</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>200800</v>
+        <v>120600</v>
       </c>
       <c r="B170" t="s">
         <v>172</v>
       </c>
       <c r="C170" t="n">
-        <v>12112</v>
+        <v>23964</v>
       </c>
       <c r="D170" t="n">
-        <v>27838</v>
+        <v>47272</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>21900</v>
+        <v>200800</v>
       </c>
       <c r="B171" t="s">
         <v>173</v>
       </c>
       <c r="C171" t="n">
-        <v>7480</v>
+        <v>12112</v>
       </c>
       <c r="D171" t="n">
-        <v>4953</v>
+        <v>27838</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>50900</v>
+        <v>21900</v>
       </c>
       <c r="B172" t="s">
         <v>174</v>
       </c>
       <c r="C172" t="n">
-        <v>1986</v>
+        <v>7480</v>
       </c>
       <c r="D172" t="n">
-        <v>2250</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>200600</v>
+        <v>50900</v>
       </c>
       <c r="B173" t="s">
         <v>175</v>
       </c>
       <c r="C173" t="n">
-        <v>55271</v>
+        <v>1986</v>
       </c>
       <c r="D173" t="n">
-        <v>126417</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>230100</v>
+        <v>200600</v>
       </c>
       <c r="B174" t="s">
         <v>176</v>
       </c>
       <c r="C174" t="n">
-        <v>128234</v>
+        <v>55271</v>
       </c>
       <c r="D174" t="n">
-        <v>56926</v>
+        <v>126417</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>170300</v>
+        <v>230100</v>
       </c>
       <c r="B175" t="s">
         <v>177</v>
       </c>
       <c r="C175" t="n">
-        <v>1816</v>
+        <v>128234</v>
       </c>
       <c r="D175" t="n">
-        <v>2739</v>
+        <v>56926</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>200700</v>
+        <v>170300</v>
       </c>
       <c r="B176" t="s">
         <v>178</v>
       </c>
       <c r="C176" t="n">
-        <v>40685</v>
+        <v>1816</v>
       </c>
       <c r="D176" t="n">
-        <v>38701</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>170100</v>
+        <v>200700</v>
       </c>
       <c r="B177" t="s">
         <v>179</v>
       </c>
       <c r="C177" t="n">
-        <v>22116</v>
+        <v>40685</v>
       </c>
       <c r="D177" t="n">
-        <v>36514</v>
+        <v>38701</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>230400</v>
+        <v>170100</v>
       </c>
       <c r="B178" t="s">
         <v>180</v>
       </c>
       <c r="C178" t="n">
-        <v>3402</v>
+        <v>22116</v>
       </c>
       <c r="D178" t="n">
-        <v>1868</v>
+        <v>36514</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>120700</v>
+        <v>230400</v>
       </c>
       <c r="B179" t="s">
         <v>181</v>
       </c>
       <c r="C179" t="n">
-        <v>20068</v>
+        <v>3402</v>
       </c>
       <c r="D179" t="n">
-        <v>32234</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>90700</v>
+        <v>120700</v>
       </c>
       <c r="B180" t="s">
         <v>182</v>
       </c>
       <c r="C180" t="n">
-        <v>21611</v>
+        <v>20068</v>
       </c>
       <c r="D180" t="n">
-        <v>14372</v>
+        <v>32234</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>221000</v>
+        <v>90700</v>
       </c>
       <c r="B181" t="s">
         <v>183</v>
       </c>
       <c r="C181" t="n">
-        <v>15798</v>
+        <v>21611</v>
       </c>
       <c r="D181" t="n">
-        <v>18970</v>
+        <v>14372</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>130100</v>
+        <v>221000</v>
       </c>
       <c r="B182" t="s">
         <v>184</v>
       </c>
       <c r="C182" t="n">
-        <v>240401</v>
+        <v>15798</v>
       </c>
       <c r="D182" t="n">
-        <v>320177</v>
+        <v>18970</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>240100</v>
+        <v>130100</v>
       </c>
       <c r="B183" t="s">
         <v>185</v>
       </c>
       <c r="C183" t="n">
-        <v>28785</v>
+        <v>240401</v>
       </c>
       <c r="D183" t="n">
-        <v>57885</v>
+        <v>320177</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>160600</v>
+        <v>240100</v>
       </c>
       <c r="B184" t="s">
         <v>186</v>
       </c>
       <c r="C184" t="n">
-        <v>10908</v>
+        <v>28785</v>
       </c>
       <c r="D184" t="n">
-        <v>11869</v>
+        <v>57885</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>81300</v>
+        <v>160600</v>
       </c>
       <c r="B185" t="s">
         <v>187</v>
       </c>
       <c r="C185" t="n">
-        <v>22028</v>
+        <v>10908</v>
       </c>
       <c r="D185" t="n">
-        <v>13081</v>
+        <v>11869</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>10700</v>
+        <v>81300</v>
       </c>
       <c r="B186" t="s">
         <v>188</v>
       </c>
       <c r="C186" t="n">
-        <v>20971</v>
+        <v>22028</v>
       </c>
       <c r="D186" t="n">
-        <v>30342</v>
+        <v>13081</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>51000</v>
+        <v>10700</v>
       </c>
       <c r="B187" t="s">
         <v>189</v>
       </c>
       <c r="C187" t="n">
-        <v>5070</v>
+        <v>20971</v>
       </c>
       <c r="D187" t="n">
-        <v>3701</v>
+        <v>30342</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>51100</v>
+        <v>51000</v>
       </c>
       <c r="B188" t="s">
         <v>190</v>
       </c>
       <c r="C188" t="n">
-        <v>3794</v>
+        <v>5070</v>
       </c>
       <c r="D188" t="n">
-        <v>4796</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>131200</v>
+        <v>51100</v>
       </c>
       <c r="B189" t="s">
         <v>191</v>
       </c>
       <c r="C189" t="n">
-        <v>14620</v>
+        <v>3794</v>
       </c>
       <c r="D189" t="n">
-        <v>28631</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>101100</v>
+        <v>131200</v>
       </c>
       <c r="B190" t="s">
         <v>192</v>
       </c>
       <c r="C190" t="n">
-        <v>8667</v>
+        <v>14620</v>
       </c>
       <c r="D190" t="n">
-        <v>3137</v>
+        <v>28631</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>120800</v>
+        <v>101100</v>
       </c>
       <c r="B191" t="s">
         <v>193</v>
       </c>
       <c r="C191" t="n">
-        <v>15462</v>
+        <v>8667</v>
       </c>
       <c r="D191" t="n">
-        <v>8871</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>151000</v>
+        <v>120800</v>
       </c>
       <c r="B192" t="s">
         <v>194</v>
       </c>
       <c r="C192" t="n">
-        <v>5383</v>
+        <v>15462</v>
       </c>
       <c r="D192" t="n">
-        <v>8211</v>
+        <v>8871</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>22000</v>
+        <v>151000</v>
       </c>
       <c r="B193" t="s">
         <v>195</v>
       </c>
       <c r="C193" t="n">
-        <v>10635</v>
+        <v>5383</v>
       </c>
       <c r="D193" t="n">
-        <v>16739</v>
+        <v>8211</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>211300</v>
+        <v>22000</v>
       </c>
       <c r="B194" t="s">
         <v>196</v>
       </c>
       <c r="C194" t="n">
-        <v>10938</v>
+        <v>10635</v>
       </c>
       <c r="D194" t="n">
-        <v>6304</v>
+        <v>16739</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>240300</v>
+        <v>211300</v>
       </c>
       <c r="B195" t="s">
         <v>197</v>
       </c>
       <c r="C195" t="n">
+        <v>10938</v>
+      </c>
+      <c r="D195" t="n">
+        <v>6304</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>240300</v>
+      </c>
+      <c r="B196" t="s">
+        <v>198</v>
+      </c>
+      <c r="C196" t="n">
         <v>4470</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D196" t="n">
         <v>20567</v>
       </c>
     </row>
